--- a/OpenWorld/Resources/Locations.xlsx
+++ b/OpenWorld/Resources/Locations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,72 @@
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>enemies</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Fox,Wolf</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Mermaid,Fairy</t>
+  </si>
+  <si>
+    <t>Fox,Fairy,Mermaid</t>
+  </si>
+  <si>
+    <t>Fox,Fairy</t>
+  </si>
+  <si>
+    <t>Cave in the forest</t>
+  </si>
+  <si>
+    <t>Cave troll,Werewolf,Ghost,Zombie,Orc,Goblin</t>
+  </si>
+  <si>
+    <t>Fox,Wolf,Wild boar,Werewolf,Fairy</t>
+  </si>
+  <si>
+    <t>Cave in the mountains</t>
+  </si>
+  <si>
+    <t>Cave troll,Werewolf,Dragon,Stone golem</t>
+  </si>
+  <si>
+    <t>Wolf,Wild boar,Stone golem,Giant</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,15 +107,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +408,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" activeCellId="1" sqref="B4 G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OpenWorld/Resources/Locations.xlsx
+++ b/OpenWorld/Resources/Locations.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">name </t>
   </si>
   <si>
-    <t>enemies</t>
-  </si>
-  <si>
     <t>Forest</t>
   </si>
   <si>
@@ -68,6 +65,36 @@
   </si>
   <si>
     <t>Wolf,Wild boar,Stone golem,Giant</t>
+  </si>
+  <si>
+    <t>enemiesDay</t>
+  </si>
+  <si>
+    <t>enemiesNight</t>
+  </si>
+  <si>
+    <t>Fox,Wolf,Wild boar</t>
+  </si>
+  <si>
+    <t>Fox,Fairy,Wolf,Wild boar</t>
+  </si>
+  <si>
+    <t>Wolf,Wild boar,Stone golem,Giant,Orc,Goblin</t>
+  </si>
+  <si>
+    <t>Cave troll,Zombie,Orc,Goblin</t>
+  </si>
+  <si>
+    <t>Fox,Mermaid</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Mermaid</t>
+  </si>
+  <si>
+    <t>Cave troll,Dragon,Stone golem</t>
   </si>
 </sst>
 </file>
@@ -409,88 +436,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="B4 G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
